--- a/2011.stats.xlsx
+++ b/2011.stats.xlsx
@@ -10,12 +10,12 @@
     <sheet name="2011.stats" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="370">
   <si>
     <t>School</t>
   </si>
@@ -1122,6 +1122,9 @@
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>Tournament</t>
   </si>
 </sst>
 </file>
@@ -2035,18 +2038,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R348"/>
+  <dimension ref="A1:T348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2101,8 +2104,11 @@
       <c r="R1" s="8" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -2157,8 +2163,12 @@
       <c r="R2" s="1">
         <v>174</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2213,8 +2223,12 @@
       <c r="R3" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2269,8 +2283,12 @@
       <c r="R4" s="1">
         <v>342</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>318</v>
       </c>
@@ -2325,8 +2343,12 @@
       <c r="R5" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2381,8 +2403,12 @@
       <c r="R6" s="1">
         <v>309</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -2437,8 +2463,12 @@
       <c r="R7" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>319</v>
       </c>
@@ -2493,8 +2523,12 @@
       <c r="R8" s="1">
         <v>222</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2549,8 +2583,12 @@
       <c r="R9" s="1">
         <v>335</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2605,8 +2643,12 @@
       <c r="R10" s="1">
         <v>153</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -2661,8 +2703,12 @@
       <c r="R11" s="1">
         <v>255</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -2717,8 +2763,12 @@
       <c r="R12" s="1">
         <v>239</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -2773,8 +2823,12 @@
       <c r="R13" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -2829,8 +2883,12 @@
       <c r="R14" s="1">
         <v>177</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2885,8 +2943,12 @@
       <c r="R15" s="1">
         <v>303</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,8 +3003,12 @@
       <c r="R16" s="1">
         <v>224</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -2997,8 +3063,12 @@
       <c r="R17" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -3053,8 +3123,12 @@
       <c r="R18" s="1">
         <v>304</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -3109,8 +3183,12 @@
       <c r="R19" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -3165,8 +3243,12 @@
       <c r="R20" s="1">
         <v>194</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -3221,8 +3303,12 @@
       <c r="R21" s="1">
         <v>254</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -3277,8 +3363,12 @@
       <c r="R22" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="1">
+        <v>1</v>
+      </c>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -3333,8 +3423,12 @@
       <c r="R23" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="1">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -3389,8 +3483,12 @@
       <c r="R24" s="1">
         <v>235</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -3445,8 +3543,12 @@
       <c r="R25" s="1">
         <v>344</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -3501,8 +3603,12 @@
       <c r="R26" s="1">
         <v>181</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -3557,8 +3663,12 @@
       <c r="R27" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -3613,8 +3723,12 @@
       <c r="R28" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>320</v>
       </c>
@@ -3669,8 +3783,12 @@
       <c r="R29" s="1">
         <v>165</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -3725,8 +3843,12 @@
       <c r="R30" s="1">
         <v>268</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>321</v>
       </c>
@@ -3781,8 +3903,12 @@
       <c r="R31" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" s="1">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -3837,8 +3963,12 @@
       <c r="R32" s="1">
         <v>314</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -3893,8 +4023,12 @@
       <c r="R33" s="1">
         <v>340</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -3949,8 +4083,12 @@
       <c r="R34" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -4005,8 +4143,12 @@
       <c r="R35" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -4061,8 +4203,12 @@
       <c r="R36" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4117,8 +4263,12 @@
       <c r="R37" s="1">
         <v>223</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -4173,8 +4323,12 @@
       <c r="R38" s="1">
         <v>217</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -4229,8 +4383,12 @@
       <c r="R39" s="1">
         <v>162</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -4285,8 +4443,12 @@
       <c r="R40" s="1">
         <v>324</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>322</v>
       </c>
@@ -4341,8 +4503,12 @@
       <c r="R41" s="1">
         <v>336</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>323</v>
       </c>
@@ -4397,8 +4563,12 @@
       <c r="R42" s="1">
         <v>258</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>324</v>
       </c>
@@ -4453,8 +4623,12 @@
       <c r="R43" s="1">
         <v>253</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>325</v>
       </c>
@@ -4509,8 +4683,12 @@
       <c r="R44" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
@@ -4565,8 +4743,12 @@
       <c r="R45" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45" s="1">
+        <v>1</v>
+      </c>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
@@ -4621,8 +4803,12 @@
       <c r="R46" s="1">
         <v>207</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
@@ -4677,8 +4863,12 @@
       <c r="R47" s="1">
         <v>332</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
@@ -4733,8 +4923,12 @@
       <c r="R48" s="1">
         <v>322</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>326</v>
       </c>
@@ -4789,8 +4983,12 @@
       <c r="R49" s="1">
         <v>230</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>327</v>
       </c>
@@ -4845,8 +5043,12 @@
       <c r="R50" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -4901,8 +5103,12 @@
       <c r="R51" s="1">
         <v>280</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
@@ -4957,8 +5163,12 @@
       <c r="R52" s="1">
         <v>163</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -5013,8 +5223,12 @@
       <c r="R53" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53" s="1">
+        <v>0</v>
+      </c>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
@@ -5069,8 +5283,12 @@
       <c r="R54" s="1">
         <v>307</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
@@ -5125,8 +5343,12 @@
       <c r="R55" s="1">
         <v>337</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55" s="1">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
@@ -5181,8 +5403,12 @@
       <c r="R56" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56" s="1">
+        <v>1</v>
+      </c>
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
@@ -5237,8 +5463,12 @@
       <c r="R57" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57" s="1">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
@@ -5293,8 +5523,12 @@
       <c r="R58" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
@@ -5349,8 +5583,12 @@
       <c r="R59" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
@@ -5405,8 +5643,12 @@
       <c r="R60" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -5461,8 +5703,12 @@
       <c r="R61" s="1">
         <v>295</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
@@ -5517,8 +5763,12 @@
       <c r="R62" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
@@ -5573,8 +5823,12 @@
       <c r="R63" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63" s="1">
+        <v>1</v>
+      </c>
+      <c r="T63" s="1"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -5629,8 +5883,12 @@
       <c r="R64" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64" s="1">
+        <v>1</v>
+      </c>
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
@@ -5685,8 +5943,12 @@
       <c r="R65" s="1">
         <v>187</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
@@ -5741,8 +6003,12 @@
       <c r="R66" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66" s="1">
+        <v>1</v>
+      </c>
+      <c r="T66" s="1"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
@@ -5797,8 +6063,12 @@
       <c r="R67" s="1">
         <v>276</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -5853,8 +6123,12 @@
       <c r="R68" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -5909,8 +6183,12 @@
       <c r="R69" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69" s="1">
+        <v>1</v>
+      </c>
+      <c r="T69" s="1"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -5965,8 +6243,12 @@
       <c r="R70" s="1">
         <v>331</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70" s="1">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
@@ -6021,8 +6303,12 @@
       <c r="R71" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71" s="1">
+        <v>1</v>
+      </c>
+      <c r="T71" s="1"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
@@ -6077,8 +6363,12 @@
       <c r="R72" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
@@ -6133,8 +6423,12 @@
       <c r="R73" s="1">
         <v>247</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
@@ -6189,8 +6483,12 @@
       <c r="R74" s="1">
         <v>154</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74" s="1">
+        <v>0</v>
+      </c>
+      <c r="T74" s="1"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
@@ -6245,8 +6543,12 @@
       <c r="R75" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+      <c r="T75" s="1"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
@@ -6301,8 +6603,12 @@
       <c r="R76" s="1">
         <v>193</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+      <c r="T76" s="1"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>328</v>
       </c>
@@ -6357,8 +6663,12 @@
       <c r="R77" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S77" s="1">
+        <v>1</v>
+      </c>
+      <c r="T77" s="1"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -6413,8 +6723,12 @@
       <c r="R78" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
+      <c r="T78" s="1"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -6469,8 +6783,12 @@
       <c r="R79" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S79" s="1">
+        <v>0</v>
+      </c>
+      <c r="T79" s="1"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -6525,8 +6843,12 @@
       <c r="R80" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S80" s="1">
+        <v>1</v>
+      </c>
+      <c r="T80" s="1"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -6581,8 +6903,12 @@
       <c r="R81" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+      <c r="T81" s="1"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -6637,8 +6963,12 @@
       <c r="R82" s="1">
         <v>167</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S82" s="1">
+        <v>0</v>
+      </c>
+      <c r="T82" s="1"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -6693,8 +7023,12 @@
       <c r="R83" s="1">
         <v>172</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S83" s="1">
+        <v>0</v>
+      </c>
+      <c r="T83" s="1"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -6749,8 +7083,12 @@
       <c r="R84" s="1">
         <v>287</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S84" s="1">
+        <v>0</v>
+      </c>
+      <c r="T84" s="1"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -6805,8 +7143,12 @@
       <c r="R85" s="1">
         <v>228</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S85" s="1">
+        <v>0</v>
+      </c>
+      <c r="T85" s="1"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -6861,8 +7203,12 @@
       <c r="R86" s="1">
         <v>243</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S86" s="1">
+        <v>0</v>
+      </c>
+      <c r="T86" s="1"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
@@ -6917,8 +7263,12 @@
       <c r="R87" s="1">
         <v>209</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S87" s="1">
+        <v>0</v>
+      </c>
+      <c r="T87" s="1"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -6973,8 +7323,12 @@
       <c r="R88" s="1">
         <v>229</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S88" s="1">
+        <v>0</v>
+      </c>
+      <c r="T88" s="1"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
@@ -7029,8 +7383,12 @@
       <c r="R89" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S89" s="1">
+        <v>0</v>
+      </c>
+      <c r="T89" s="1"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -7085,8 +7443,12 @@
       <c r="R90" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S90" s="1">
+        <v>0</v>
+      </c>
+      <c r="T90" s="1"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -7141,8 +7503,12 @@
       <c r="R91" s="1">
         <v>330</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S91" s="1">
+        <v>0</v>
+      </c>
+      <c r="T91" s="1"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
@@ -7197,8 +7563,12 @@
       <c r="R92" s="1">
         <v>313</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S92" s="1">
+        <v>0</v>
+      </c>
+      <c r="T92" s="1"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
@@ -7253,8 +7623,12 @@
       <c r="R93" s="1">
         <v>206</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S93" s="1">
+        <v>0</v>
+      </c>
+      <c r="T93" s="1"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -7309,8 +7683,12 @@
       <c r="R94" s="1">
         <v>202</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S94" s="1">
+        <v>0</v>
+      </c>
+      <c r="T94" s="1"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>329</v>
       </c>
@@ -7365,8 +7743,12 @@
       <c r="R95" s="1">
         <v>252</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S95" s="1">
+        <v>0</v>
+      </c>
+      <c r="T95" s="1"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>99</v>
       </c>
@@ -7421,8 +7803,12 @@
       <c r="R96" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S96" s="1">
+        <v>1</v>
+      </c>
+      <c r="T96" s="1"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>100</v>
       </c>
@@ -7477,8 +7863,12 @@
       <c r="R97" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S97" s="1">
+        <v>1</v>
+      </c>
+      <c r="T97" s="1"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>101</v>
       </c>
@@ -7533,8 +7923,12 @@
       <c r="R98" s="1">
         <v>242</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S98" s="1">
+        <v>0</v>
+      </c>
+      <c r="T98" s="1"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>102</v>
       </c>
@@ -7589,8 +7983,12 @@
       <c r="R99" s="1">
         <v>227</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S99" s="1">
+        <v>0</v>
+      </c>
+      <c r="T99" s="1"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>103</v>
       </c>
@@ -7645,8 +8043,12 @@
       <c r="R100" s="1">
         <v>232</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S100" s="1">
+        <v>0</v>
+      </c>
+      <c r="T100" s="1"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>104</v>
       </c>
@@ -7701,8 +8103,12 @@
       <c r="R101" s="1">
         <v>293</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S101" s="1">
+        <v>0</v>
+      </c>
+      <c r="T101" s="1"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>105</v>
       </c>
@@ -7757,8 +8163,12 @@
       <c r="R102" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S102" s="1">
+        <v>0</v>
+      </c>
+      <c r="T102" s="1"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>106</v>
       </c>
@@ -7813,8 +8223,12 @@
       <c r="R103" s="1">
         <v>189</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S103" s="1">
+        <v>0</v>
+      </c>
+      <c r="T103" s="1"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>107</v>
       </c>
@@ -7869,8 +8283,12 @@
       <c r="R104" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S104" s="1">
+        <v>1</v>
+      </c>
+      <c r="T104" s="1"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>108</v>
       </c>
@@ -7925,8 +8343,12 @@
       <c r="R105" s="1">
         <v>205</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S105" s="1">
+        <v>0</v>
+      </c>
+      <c r="T105" s="1"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>109</v>
       </c>
@@ -7981,8 +8403,12 @@
       <c r="R106" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S106" s="1">
+        <v>0</v>
+      </c>
+      <c r="T106" s="1"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>110</v>
       </c>
@@ -8037,8 +8463,12 @@
       <c r="R107" s="1">
         <v>196</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S107" s="1">
+        <v>0</v>
+      </c>
+      <c r="T107" s="1"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>111</v>
       </c>
@@ -8093,8 +8523,12 @@
       <c r="R108" s="1">
         <v>104</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S108" s="1">
+        <v>0</v>
+      </c>
+      <c r="T108" s="1"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>112</v>
       </c>
@@ -8149,8 +8583,12 @@
       <c r="R109" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S109" s="1">
+        <v>1</v>
+      </c>
+      <c r="T109" s="1"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>113</v>
       </c>
@@ -8205,8 +8643,12 @@
       <c r="R110" s="1">
         <v>341</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S110" s="1">
+        <v>0</v>
+      </c>
+      <c r="T110" s="1"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>114</v>
       </c>
@@ -8261,8 +8703,12 @@
       <c r="R111" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S111" s="1">
+        <v>0</v>
+      </c>
+      <c r="T111" s="1"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>115</v>
       </c>
@@ -8317,8 +8763,12 @@
       <c r="R112" s="1">
         <v>306</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S112" s="1">
+        <v>0</v>
+      </c>
+      <c r="T112" s="1"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>116</v>
       </c>
@@ -8373,8 +8823,12 @@
       <c r="R113" s="1">
         <v>308</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S113" s="1">
+        <v>0</v>
+      </c>
+      <c r="T113" s="1"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>117</v>
       </c>
@@ -8429,8 +8883,12 @@
       <c r="R114" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S114" s="1">
+        <v>1</v>
+      </c>
+      <c r="T114" s="1"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>118</v>
       </c>
@@ -8485,8 +8943,12 @@
       <c r="R115" s="1">
         <v>203</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S115" s="1">
+        <v>0</v>
+      </c>
+      <c r="T115" s="1"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>119</v>
       </c>
@@ -8541,8 +9003,12 @@
       <c r="R116" s="1">
         <v>271</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S116" s="1">
+        <v>0</v>
+      </c>
+      <c r="T116" s="1"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>120</v>
       </c>
@@ -8597,8 +9063,12 @@
       <c r="R117" s="1">
         <v>266</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S117" s="1">
+        <v>0</v>
+      </c>
+      <c r="T117" s="1"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>121</v>
       </c>
@@ -8653,8 +9123,12 @@
       <c r="R118" s="1">
         <v>179</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S118" s="1">
+        <v>0</v>
+      </c>
+      <c r="T118" s="1"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>122</v>
       </c>
@@ -8709,8 +9183,12 @@
       <c r="R119" s="1">
         <v>323</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S119" s="1">
+        <v>0</v>
+      </c>
+      <c r="T119" s="1"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>123</v>
       </c>
@@ -8765,8 +9243,12 @@
       <c r="R120" s="1">
         <v>211</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S120" s="1">
+        <v>0</v>
+      </c>
+      <c r="T120" s="1"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>124</v>
       </c>
@@ -8821,8 +9303,12 @@
       <c r="R121" s="1">
         <v>284</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S121" s="1">
+        <v>0</v>
+      </c>
+      <c r="T121" s="1"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>125</v>
       </c>
@@ -8877,8 +9363,12 @@
       <c r="R122" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S122" s="1">
+        <v>0</v>
+      </c>
+      <c r="T122" s="1"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
@@ -8933,8 +9423,12 @@
       <c r="R123" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S123" s="1">
+        <v>0</v>
+      </c>
+      <c r="T123" s="1"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -8989,8 +9483,12 @@
       <c r="R124" s="1">
         <v>298</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S124" s="1">
+        <v>0</v>
+      </c>
+      <c r="T124" s="1"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
@@ -9045,8 +9543,12 @@
       <c r="R125" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S125" s="1">
+        <v>0</v>
+      </c>
+      <c r="T125" s="1"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -9101,8 +9603,12 @@
       <c r="R126" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S126" s="1">
+        <v>0</v>
+      </c>
+      <c r="T126" s="1"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
@@ -9157,8 +9663,12 @@
       <c r="R127" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S127" s="1">
+        <v>0</v>
+      </c>
+      <c r="T127" s="1"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
@@ -9213,8 +9723,12 @@
       <c r="R128" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S128" s="1">
+        <v>1</v>
+      </c>
+      <c r="T128" s="1"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
@@ -9269,8 +9783,12 @@
       <c r="R129" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S129" s="1">
+        <v>1</v>
+      </c>
+      <c r="T129" s="1"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
@@ -9325,8 +9843,12 @@
       <c r="R130" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S130" s="1">
+        <v>1</v>
+      </c>
+      <c r="T130" s="1"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
@@ -9381,8 +9903,12 @@
       <c r="R131" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S131" s="1">
+        <v>0</v>
+      </c>
+      <c r="T131" s="1"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -9437,8 +9963,12 @@
       <c r="R132" s="1">
         <v>281</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S132" s="1">
+        <v>0</v>
+      </c>
+      <c r="T132" s="1"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
@@ -9493,8 +10023,12 @@
       <c r="R133" s="1">
         <v>212</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S133" s="1">
+        <v>0</v>
+      </c>
+      <c r="T133" s="1"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
@@ -9549,8 +10083,12 @@
       <c r="R134" s="1">
         <v>321</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S134" s="1">
+        <v>0</v>
+      </c>
+      <c r="T134" s="1"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>138</v>
       </c>
@@ -9605,8 +10143,12 @@
       <c r="R135" s="1">
         <v>225</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S135" s="1">
+        <v>0</v>
+      </c>
+      <c r="T135" s="1"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>139</v>
       </c>
@@ -9661,8 +10203,12 @@
       <c r="R136" s="1">
         <v>260</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S136" s="1">
+        <v>0</v>
+      </c>
+      <c r="T136" s="1"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>140</v>
       </c>
@@ -9717,8 +10263,12 @@
       <c r="R137" s="1">
         <v>261</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S137" s="1">
+        <v>0</v>
+      </c>
+      <c r="T137" s="1"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>141</v>
       </c>
@@ -9773,8 +10323,12 @@
       <c r="R138" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S138" s="1">
+        <v>1</v>
+      </c>
+      <c r="T138" s="1"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>142</v>
       </c>
@@ -9829,8 +10383,12 @@
       <c r="R139" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S139" s="1">
+        <v>1</v>
+      </c>
+      <c r="T139" s="1"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>143</v>
       </c>
@@ -9885,8 +10443,12 @@
       <c r="R140" s="1">
         <v>329</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S140" s="1">
+        <v>0</v>
+      </c>
+      <c r="T140" s="1"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>144</v>
       </c>
@@ -9941,8 +10503,12 @@
       <c r="R141" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S141" s="1">
+        <v>0</v>
+      </c>
+      <c r="T141" s="1"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
@@ -9997,8 +10563,12 @@
       <c r="R142" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S142" s="1">
+        <v>1</v>
+      </c>
+      <c r="T142" s="1"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
@@ -10053,8 +10623,12 @@
       <c r="R143" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S143" s="1">
+        <v>0</v>
+      </c>
+      <c r="T143" s="1"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>147</v>
       </c>
@@ -10109,8 +10683,12 @@
       <c r="R144" s="1">
         <v>197</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S144" s="1">
+        <v>0</v>
+      </c>
+      <c r="T144" s="1"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>148</v>
       </c>
@@ -10165,8 +10743,12 @@
       <c r="R145" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S145" s="1">
+        <v>1</v>
+      </c>
+      <c r="T145" s="1"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>149</v>
       </c>
@@ -10221,8 +10803,12 @@
       <c r="R146" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S146" s="1">
+        <v>1</v>
+      </c>
+      <c r="T146" s="1"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
@@ -10277,8 +10863,12 @@
       <c r="R147" s="1">
         <v>283</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S147" s="1">
+        <v>0</v>
+      </c>
+      <c r="T147" s="1"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>151</v>
       </c>
@@ -10333,8 +10923,12 @@
       <c r="R148" s="1">
         <v>215</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S148" s="1">
+        <v>0</v>
+      </c>
+      <c r="T148" s="1"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>152</v>
       </c>
@@ -10389,8 +10983,12 @@
       <c r="R149" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S149" s="1">
+        <v>1</v>
+      </c>
+      <c r="T149" s="1"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>330</v>
       </c>
@@ -10445,8 +11043,12 @@
       <c r="R150" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S150" s="1">
+        <v>1</v>
+      </c>
+      <c r="T150" s="1"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>153</v>
       </c>
@@ -10501,8 +11103,12 @@
       <c r="R151" s="1">
         <v>333</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S151" s="1">
+        <v>0</v>
+      </c>
+      <c r="T151" s="1"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>154</v>
       </c>
@@ -10557,8 +11163,12 @@
       <c r="R152" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S152" s="1">
+        <v>0</v>
+      </c>
+      <c r="T152" s="1"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>331</v>
       </c>
@@ -10613,8 +11223,12 @@
       <c r="R153" s="1">
         <v>317</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S153" s="1">
+        <v>0</v>
+      </c>
+      <c r="T153" s="1"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>332</v>
       </c>
@@ -10669,8 +11283,12 @@
       <c r="R154" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S154" s="1">
+        <v>0</v>
+      </c>
+      <c r="T154" s="1"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
@@ -10725,8 +11343,12 @@
       <c r="R155" s="1">
         <v>158</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S155" s="1">
+        <v>0</v>
+      </c>
+      <c r="T155" s="1"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>156</v>
       </c>
@@ -10781,8 +11403,12 @@
       <c r="R156" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S156" s="1">
+        <v>1</v>
+      </c>
+      <c r="T156" s="1"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>333</v>
       </c>
@@ -10837,8 +11463,12 @@
       <c r="R157" s="1">
         <v>310</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S157" s="1">
+        <v>1</v>
+      </c>
+      <c r="T157" s="1"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>334</v>
       </c>
@@ -10893,8 +11523,12 @@
       <c r="R158" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S158" s="1">
+        <v>0</v>
+      </c>
+      <c r="T158" s="1"/>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>335</v>
       </c>
@@ -10949,8 +11583,12 @@
       <c r="R159" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S159" s="1">
+        <v>0</v>
+      </c>
+      <c r="T159" s="1"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>157</v>
       </c>
@@ -11005,8 +11643,12 @@
       <c r="R160" s="1">
         <v>285</v>
       </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S160" s="1">
+        <v>0</v>
+      </c>
+      <c r="T160" s="1"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>158</v>
       </c>
@@ -11061,8 +11703,12 @@
       <c r="R161" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S161" s="1">
+        <v>0</v>
+      </c>
+      <c r="T161" s="1"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>159</v>
       </c>
@@ -11117,8 +11763,12 @@
       <c r="R162" s="1">
         <v>219</v>
       </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S162" s="1">
+        <v>0</v>
+      </c>
+      <c r="T162" s="1"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>160</v>
       </c>
@@ -11173,8 +11823,12 @@
       <c r="R163" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S163" s="1">
+        <v>1</v>
+      </c>
+      <c r="T163" s="1"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>161</v>
       </c>
@@ -11229,8 +11883,12 @@
       <c r="R164" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S164" s="1">
+        <v>0</v>
+      </c>
+      <c r="T164" s="1"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
@@ -11285,8 +11943,12 @@
       <c r="R165" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S165" s="1">
+        <v>0</v>
+      </c>
+      <c r="T165" s="1"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>336</v>
       </c>
@@ -11341,8 +12003,12 @@
       <c r="R166" s="1">
         <v>320</v>
       </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S166" s="1">
+        <v>0</v>
+      </c>
+      <c r="T166" s="1"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>163</v>
       </c>
@@ -11397,8 +12063,12 @@
       <c r="R167" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S167" s="1">
+        <v>0</v>
+      </c>
+      <c r="T167" s="1"/>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>164</v>
       </c>
@@ -11453,8 +12123,12 @@
       <c r="R168" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S168" s="1">
+        <v>0</v>
+      </c>
+      <c r="T168" s="1"/>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>165</v>
       </c>
@@ -11509,8 +12183,12 @@
       <c r="R169" s="1">
         <v>184</v>
       </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S169" s="1">
+        <v>0</v>
+      </c>
+      <c r="T169" s="1"/>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>166</v>
       </c>
@@ -11565,8 +12243,12 @@
       <c r="R170" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S170" s="1">
+        <v>1</v>
+      </c>
+      <c r="T170" s="1"/>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>167</v>
       </c>
@@ -11621,8 +12303,12 @@
       <c r="R171" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S171" s="1">
+        <v>0</v>
+      </c>
+      <c r="T171" s="1"/>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>337</v>
       </c>
@@ -11677,8 +12363,12 @@
       <c r="R172" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S172" s="1">
+        <v>0</v>
+      </c>
+      <c r="T172" s="1"/>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>338</v>
       </c>
@@ -11733,8 +12423,12 @@
       <c r="R173" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S173" s="1">
+        <v>0</v>
+      </c>
+      <c r="T173" s="1"/>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>168</v>
       </c>
@@ -11789,8 +12483,12 @@
       <c r="R174" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S174" s="1">
+        <v>1</v>
+      </c>
+      <c r="T174" s="1"/>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>169</v>
       </c>
@@ -11845,8 +12543,12 @@
       <c r="R175" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S175" s="1">
+        <v>1</v>
+      </c>
+      <c r="T175" s="1"/>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>170</v>
       </c>
@@ -11901,8 +12603,12 @@
       <c r="R176" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S176" s="1">
+        <v>0</v>
+      </c>
+      <c r="T176" s="1"/>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>339</v>
       </c>
@@ -11957,8 +12663,12 @@
       <c r="R177" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S177" s="1">
+        <v>0</v>
+      </c>
+      <c r="T177" s="1"/>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>171</v>
       </c>
@@ -12013,8 +12723,12 @@
       <c r="R178" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S178" s="1">
+        <v>0</v>
+      </c>
+      <c r="T178" s="1"/>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>172</v>
       </c>
@@ -12069,8 +12783,12 @@
       <c r="R179" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S179" s="1">
+        <v>0</v>
+      </c>
+      <c r="T179" s="1"/>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>173</v>
       </c>
@@ -12125,8 +12843,12 @@
       <c r="R180" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S180" s="1">
+        <v>1</v>
+      </c>
+      <c r="T180" s="1"/>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>340</v>
       </c>
@@ -12181,8 +12903,12 @@
       <c r="R181" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S181" s="1">
+        <v>0</v>
+      </c>
+      <c r="T181" s="1"/>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>174</v>
       </c>
@@ -12237,8 +12963,12 @@
       <c r="R182" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S182" s="1">
+        <v>0</v>
+      </c>
+      <c r="T182" s="1"/>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>175</v>
       </c>
@@ -12293,8 +13023,12 @@
       <c r="R183" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S183" s="1">
+        <v>0</v>
+      </c>
+      <c r="T183" s="1"/>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>176</v>
       </c>
@@ -12349,8 +13083,12 @@
       <c r="R184" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S184" s="1">
+        <v>1</v>
+      </c>
+      <c r="T184" s="1"/>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>177</v>
       </c>
@@ -12405,8 +13143,12 @@
       <c r="R185" s="1">
         <v>237</v>
       </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S185" s="1">
+        <v>0</v>
+      </c>
+      <c r="T185" s="1"/>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>178</v>
       </c>
@@ -12461,8 +13203,12 @@
       <c r="R186" s="1">
         <v>277</v>
       </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S186" s="1">
+        <v>0</v>
+      </c>
+      <c r="T186" s="1"/>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>179</v>
       </c>
@@ -12517,8 +13263,12 @@
       <c r="R187" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S187" s="1">
+        <v>1</v>
+      </c>
+      <c r="T187" s="1"/>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>180</v>
       </c>
@@ -12573,8 +13323,12 @@
       <c r="R188" s="1">
         <v>168</v>
       </c>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S188" s="1">
+        <v>0</v>
+      </c>
+      <c r="T188" s="1"/>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>181</v>
       </c>
@@ -12629,8 +13383,12 @@
       <c r="R189" s="1">
         <v>286</v>
       </c>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S189" s="1">
+        <v>0</v>
+      </c>
+      <c r="T189" s="1"/>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>341</v>
       </c>
@@ -12685,8 +13443,12 @@
       <c r="R190" s="1">
         <v>291</v>
       </c>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S190" s="1">
+        <v>0</v>
+      </c>
+      <c r="T190" s="1"/>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>182</v>
       </c>
@@ -12741,8 +13503,12 @@
       <c r="R191" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S191" s="1">
+        <v>1</v>
+      </c>
+      <c r="T191" s="1"/>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>183</v>
       </c>
@@ -12797,8 +13563,12 @@
       <c r="R192" s="1">
         <v>327</v>
       </c>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S192" s="1">
+        <v>0</v>
+      </c>
+      <c r="T192" s="1"/>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>184</v>
       </c>
@@ -12853,8 +13623,12 @@
       <c r="R193" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S193" s="1">
+        <v>0</v>
+      </c>
+      <c r="T193" s="1"/>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>342</v>
       </c>
@@ -12909,8 +13683,12 @@
       <c r="R194" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S194" s="1">
+        <v>1</v>
+      </c>
+      <c r="T194" s="1"/>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>185</v>
       </c>
@@ -12965,8 +13743,12 @@
       <c r="R195" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S195" s="1">
+        <v>0</v>
+      </c>
+      <c r="T195" s="1"/>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>186</v>
       </c>
@@ -13021,8 +13803,12 @@
       <c r="R196" s="1">
         <v>296</v>
       </c>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S196" s="1">
+        <v>0</v>
+      </c>
+      <c r="T196" s="1"/>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>187</v>
       </c>
@@ -13077,8 +13863,12 @@
       <c r="R197" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S197" s="1">
+        <v>1</v>
+      </c>
+      <c r="T197" s="1"/>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>188</v>
       </c>
@@ -13133,8 +13923,12 @@
       <c r="R198" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S198" s="1">
+        <v>1</v>
+      </c>
+      <c r="T198" s="1"/>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>189</v>
       </c>
@@ -13189,8 +13983,12 @@
       <c r="R199" s="1">
         <v>201</v>
       </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S199" s="1">
+        <v>0</v>
+      </c>
+      <c r="T199" s="1"/>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>190</v>
       </c>
@@ -13245,8 +14043,12 @@
       <c r="R200" s="1">
         <v>299</v>
       </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S200" s="1">
+        <v>0</v>
+      </c>
+      <c r="T200" s="1"/>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>343</v>
       </c>
@@ -13301,8 +14103,12 @@
       <c r="R201" s="1">
         <v>305</v>
       </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S201" s="1">
+        <v>0</v>
+      </c>
+      <c r="T201" s="1"/>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>191</v>
       </c>
@@ -13357,8 +14163,12 @@
       <c r="R202" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S202" s="1">
+        <v>1</v>
+      </c>
+      <c r="T202" s="1"/>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>344</v>
       </c>
@@ -13413,8 +14223,12 @@
       <c r="R203" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S203" s="1">
+        <v>1</v>
+      </c>
+      <c r="T203" s="1"/>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>192</v>
       </c>
@@ -13469,8 +14283,12 @@
       <c r="R204" s="1">
         <v>282</v>
       </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S204" s="1">
+        <v>0</v>
+      </c>
+      <c r="T204" s="1"/>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>193</v>
       </c>
@@ -13525,8 +14343,12 @@
       <c r="R205" s="1">
         <v>231</v>
       </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S205" s="1">
+        <v>0</v>
+      </c>
+      <c r="T205" s="1"/>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>345</v>
       </c>
@@ -13581,8 +14403,12 @@
       <c r="R206" s="1">
         <v>236</v>
       </c>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S206" s="1">
+        <v>0</v>
+      </c>
+      <c r="T206" s="1"/>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>194</v>
       </c>
@@ -13637,8 +14463,12 @@
       <c r="R207" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S207" s="1">
+        <v>1</v>
+      </c>
+      <c r="T207" s="1"/>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>346</v>
       </c>
@@ -13693,8 +14523,12 @@
       <c r="R208" s="1">
         <v>213</v>
       </c>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S208" s="1">
+        <v>0</v>
+      </c>
+      <c r="T208" s="1"/>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>195</v>
       </c>
@@ -13749,8 +14583,12 @@
       <c r="R209" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S209" s="1">
+        <v>1</v>
+      </c>
+      <c r="T209" s="1"/>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>196</v>
       </c>
@@ -13805,8 +14643,12 @@
       <c r="R210" s="1">
         <v>183</v>
       </c>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S210" s="1">
+        <v>0</v>
+      </c>
+      <c r="T210" s="1"/>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>197</v>
       </c>
@@ -13861,8 +14703,12 @@
       <c r="R211" s="1">
         <v>249</v>
       </c>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S211" s="1">
+        <v>0</v>
+      </c>
+      <c r="T211" s="1"/>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>198</v>
       </c>
@@ -13917,8 +14763,12 @@
       <c r="R212" s="1">
         <v>173</v>
       </c>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S212" s="1">
+        <v>0</v>
+      </c>
+      <c r="T212" s="1"/>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>199</v>
       </c>
@@ -13973,8 +14823,12 @@
       <c r="R213" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S213" s="1">
+        <v>0</v>
+      </c>
+      <c r="T213" s="1"/>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>200</v>
       </c>
@@ -14029,8 +14883,12 @@
       <c r="R214" s="1">
         <v>176</v>
       </c>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S214" s="1">
+        <v>0</v>
+      </c>
+      <c r="T214" s="1"/>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>201</v>
       </c>
@@ -14085,8 +14943,12 @@
       <c r="R215" s="1">
         <v>338</v>
       </c>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S215" s="1">
+        <v>0</v>
+      </c>
+      <c r="T215" s="1"/>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>202</v>
       </c>
@@ -14141,8 +15003,12 @@
       <c r="R216" s="1">
         <v>264</v>
       </c>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S216" s="1">
+        <v>0</v>
+      </c>
+      <c r="T216" s="1"/>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>203</v>
       </c>
@@ -14197,8 +15063,12 @@
       <c r="R217" s="1">
         <v>334</v>
       </c>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S217" s="1">
+        <v>0</v>
+      </c>
+      <c r="T217" s="1"/>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>204</v>
       </c>
@@ -14253,8 +15123,12 @@
       <c r="R218" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S218" s="1">
+        <v>0</v>
+      </c>
+      <c r="T218" s="1"/>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>205</v>
       </c>
@@ -14309,8 +15183,12 @@
       <c r="R219" s="1">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S219" s="1">
+        <v>0</v>
+      </c>
+      <c r="T219" s="1"/>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>206</v>
       </c>
@@ -14365,8 +15243,12 @@
       <c r="R220" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S220" s="1">
+        <v>0</v>
+      </c>
+      <c r="T220" s="1"/>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>207</v>
       </c>
@@ -14421,8 +15303,12 @@
       <c r="R221" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S221" s="1">
+        <v>1</v>
+      </c>
+      <c r="T221" s="1"/>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>208</v>
       </c>
@@ -14477,8 +15363,12 @@
       <c r="R222" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S222" s="1">
+        <v>0</v>
+      </c>
+      <c r="T222" s="1"/>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>209</v>
       </c>
@@ -14533,8 +15423,12 @@
       <c r="R223" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S223" s="1">
+        <v>1</v>
+      </c>
+      <c r="T223" s="1"/>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>210</v>
       </c>
@@ -14589,8 +15483,12 @@
       <c r="R224" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S224" s="1">
+        <v>1</v>
+      </c>
+      <c r="T224" s="1"/>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>211</v>
       </c>
@@ -14645,8 +15543,12 @@
       <c r="R225" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S225" s="1">
+        <v>0</v>
+      </c>
+      <c r="T225" s="1"/>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>212</v>
       </c>
@@ -14701,8 +15603,12 @@
       <c r="R226" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S226" s="1">
+        <v>0</v>
+      </c>
+      <c r="T226" s="1"/>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>213</v>
       </c>
@@ -14757,8 +15663,12 @@
       <c r="R227" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S227" s="1">
+        <v>0</v>
+      </c>
+      <c r="T227" s="1"/>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>214</v>
       </c>
@@ -14813,8 +15723,12 @@
       <c r="R228" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S228" s="1">
+        <v>0</v>
+      </c>
+      <c r="T228" s="1"/>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>215</v>
       </c>
@@ -14869,8 +15783,12 @@
       <c r="R229" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S229" s="1">
+        <v>0</v>
+      </c>
+      <c r="T229" s="1"/>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>216</v>
       </c>
@@ -14925,8 +15843,12 @@
       <c r="R230" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S230" s="1">
+        <v>0</v>
+      </c>
+      <c r="T230" s="1"/>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>217</v>
       </c>
@@ -14981,8 +15903,12 @@
       <c r="R231" s="1">
         <v>289</v>
       </c>
-    </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S231" s="1">
+        <v>0</v>
+      </c>
+      <c r="T231" s="1"/>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>218</v>
       </c>
@@ -15037,8 +15963,12 @@
       <c r="R232" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S232" s="1">
+        <v>0</v>
+      </c>
+      <c r="T232" s="1"/>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>219</v>
       </c>
@@ -15093,8 +16023,12 @@
       <c r="R233" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S233" s="1">
+        <v>0</v>
+      </c>
+      <c r="T233" s="1"/>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>220</v>
       </c>
@@ -15149,8 +16083,12 @@
       <c r="R234" s="1">
         <v>273</v>
       </c>
-    </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S234" s="1">
+        <v>0</v>
+      </c>
+      <c r="T234" s="1"/>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>221</v>
       </c>
@@ -15205,8 +16143,12 @@
       <c r="R235" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S235" s="1">
+        <v>0</v>
+      </c>
+      <c r="T235" s="1"/>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>222</v>
       </c>
@@ -15261,8 +16203,12 @@
       <c r="R236" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S236" s="1">
+        <v>0</v>
+      </c>
+      <c r="T236" s="1"/>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>223</v>
       </c>
@@ -15317,8 +16263,12 @@
       <c r="R237" s="1">
         <v>244</v>
       </c>
-    </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S237" s="1">
+        <v>0</v>
+      </c>
+      <c r="T237" s="1"/>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>347</v>
       </c>
@@ -15373,8 +16323,12 @@
       <c r="R238" s="1">
         <v>294</v>
       </c>
-    </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S238" s="1">
+        <v>0</v>
+      </c>
+      <c r="T238" s="1"/>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>348</v>
       </c>
@@ -15429,8 +16383,12 @@
       <c r="R239" s="1">
         <v>246</v>
       </c>
-    </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S239" s="1">
+        <v>0</v>
+      </c>
+      <c r="T239" s="1"/>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>224</v>
       </c>
@@ -15485,8 +16443,12 @@
       <c r="R240" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S240" s="1">
+        <v>0</v>
+      </c>
+      <c r="T240" s="1"/>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>225</v>
       </c>
@@ -15541,8 +16503,12 @@
       <c r="R241" s="1">
         <v>156</v>
       </c>
-    </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S241" s="1">
+        <v>0</v>
+      </c>
+      <c r="T241" s="1"/>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>226</v>
       </c>
@@ -15597,8 +16563,12 @@
       <c r="R242" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S242" s="1">
+        <v>1</v>
+      </c>
+      <c r="T242" s="1"/>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>227</v>
       </c>
@@ -15653,8 +16623,12 @@
       <c r="R243" s="1">
         <v>157</v>
       </c>
-    </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S243" s="1">
+        <v>0</v>
+      </c>
+      <c r="T243" s="1"/>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>228</v>
       </c>
@@ -15709,8 +16683,12 @@
       <c r="R244" s="1">
         <v>328</v>
       </c>
-    </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S244" s="1">
+        <v>0</v>
+      </c>
+      <c r="T244" s="1"/>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>229</v>
       </c>
@@ -15765,8 +16743,12 @@
       <c r="R245" s="1">
         <v>262</v>
       </c>
-    </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S245" s="1">
+        <v>0</v>
+      </c>
+      <c r="T245" s="1"/>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>230</v>
       </c>
@@ -15821,8 +16803,12 @@
       <c r="R246" s="1">
         <v>164</v>
       </c>
-    </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S246" s="1">
+        <v>0</v>
+      </c>
+      <c r="T246" s="1"/>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>231</v>
       </c>
@@ -15877,8 +16863,12 @@
       <c r="R247" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S247" s="1">
+        <v>0</v>
+      </c>
+      <c r="T247" s="1"/>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>232</v>
       </c>
@@ -15933,8 +16923,12 @@
       <c r="R248" s="1">
         <v>199</v>
       </c>
-    </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S248" s="1">
+        <v>0</v>
+      </c>
+      <c r="T248" s="1"/>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>233</v>
       </c>
@@ -15989,8 +16983,12 @@
       <c r="R249" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S249" s="1">
+        <v>0</v>
+      </c>
+      <c r="T249" s="1"/>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>234</v>
       </c>
@@ -16045,8 +17043,12 @@
       <c r="R250" s="1">
         <v>161</v>
       </c>
-    </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S250" s="1">
+        <v>0</v>
+      </c>
+      <c r="T250" s="1"/>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>235</v>
       </c>
@@ -16101,8 +17103,12 @@
       <c r="R251" s="1">
         <v>315</v>
       </c>
-    </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S251" s="1">
+        <v>0</v>
+      </c>
+      <c r="T251" s="1"/>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>236</v>
       </c>
@@ -16157,8 +17163,12 @@
       <c r="R252" s="1">
         <v>238</v>
       </c>
-    </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S252" s="1">
+        <v>0</v>
+      </c>
+      <c r="T252" s="1"/>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>237</v>
       </c>
@@ -16213,8 +17223,12 @@
       <c r="R253" s="1">
         <v>312</v>
       </c>
-    </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S253" s="1">
+        <v>0</v>
+      </c>
+      <c r="T253" s="1"/>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>349</v>
       </c>
@@ -16269,8 +17283,12 @@
       <c r="R254" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S254" s="1">
+        <v>0</v>
+      </c>
+      <c r="T254" s="1"/>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>238</v>
       </c>
@@ -16325,8 +17343,12 @@
       <c r="R255" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S255" s="1">
+        <v>1</v>
+      </c>
+      <c r="T255" s="1"/>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>350</v>
       </c>
@@ -16381,8 +17403,12 @@
       <c r="R256" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S256" s="1">
+        <v>1</v>
+      </c>
+      <c r="T256" s="1"/>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>351</v>
       </c>
@@ -16437,8 +17463,12 @@
       <c r="R257" s="1">
         <v>301</v>
       </c>
-    </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S257" s="1">
+        <v>0</v>
+      </c>
+      <c r="T257" s="1"/>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>239</v>
       </c>
@@ -16493,8 +17523,12 @@
       <c r="R258" s="1">
         <v>274</v>
       </c>
-    </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S258" s="1">
+        <v>0</v>
+      </c>
+      <c r="T258" s="1"/>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>240</v>
       </c>
@@ -16549,8 +17583,12 @@
       <c r="R259" s="1">
         <v>267</v>
       </c>
-    </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S259" s="1">
+        <v>0</v>
+      </c>
+      <c r="T259" s="1"/>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>241</v>
       </c>
@@ -16605,8 +17643,12 @@
       <c r="R260" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S260" s="1">
+        <v>1</v>
+      </c>
+      <c r="T260" s="1"/>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>242</v>
       </c>
@@ -16661,8 +17703,12 @@
       <c r="R261" s="1">
         <v>191</v>
       </c>
-    </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S261" s="1">
+        <v>0</v>
+      </c>
+      <c r="T261" s="1"/>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>243</v>
       </c>
@@ -16717,8 +17763,12 @@
       <c r="R262" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S262" s="1">
+        <v>0</v>
+      </c>
+      <c r="T262" s="1"/>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>244</v>
       </c>
@@ -16773,8 +17823,12 @@
       <c r="R263" s="1">
         <v>278</v>
       </c>
-    </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S263" s="1">
+        <v>0</v>
+      </c>
+      <c r="T263" s="1"/>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>245</v>
       </c>
@@ -16829,8 +17883,12 @@
       <c r="R264" s="1">
         <v>302</v>
       </c>
-    </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S264" s="1">
+        <v>0</v>
+      </c>
+      <c r="T264" s="1"/>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>246</v>
       </c>
@@ -16885,8 +17943,12 @@
       <c r="R265" s="1">
         <v>188</v>
       </c>
-    </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S265" s="1">
+        <v>0</v>
+      </c>
+      <c r="T265" s="1"/>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>352</v>
       </c>
@@ -16941,8 +18003,12 @@
       <c r="R266" s="1">
         <v>275</v>
       </c>
-    </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S266" s="1">
+        <v>0</v>
+      </c>
+      <c r="T266" s="1"/>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>247</v>
       </c>
@@ -16997,8 +18063,12 @@
       <c r="R267" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S267" s="1">
+        <v>0</v>
+      </c>
+      <c r="T267" s="1"/>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>248</v>
       </c>
@@ -17053,8 +18123,12 @@
       <c r="R268" s="1">
         <v>214</v>
       </c>
-    </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S268" s="1">
+        <v>0</v>
+      </c>
+      <c r="T268" s="1"/>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>249</v>
       </c>
@@ -17109,8 +18183,12 @@
       <c r="R269" s="1">
         <v>169</v>
       </c>
-    </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S269" s="1">
+        <v>0</v>
+      </c>
+      <c r="T269" s="1"/>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>250</v>
       </c>
@@ -17165,8 +18243,12 @@
       <c r="R270" s="1">
         <v>343</v>
       </c>
-    </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S270" s="1">
+        <v>0</v>
+      </c>
+      <c r="T270" s="1"/>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>251</v>
       </c>
@@ -17221,8 +18303,12 @@
       <c r="R271" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S271" s="1">
+        <v>0</v>
+      </c>
+      <c r="T271" s="1"/>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>252</v>
       </c>
@@ -17277,8 +18363,12 @@
       <c r="R272" s="1">
         <v>192</v>
       </c>
-    </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S272" s="1">
+        <v>0</v>
+      </c>
+      <c r="T272" s="1"/>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>253</v>
       </c>
@@ -17333,8 +18423,12 @@
       <c r="R273" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S273" s="1">
+        <v>1</v>
+      </c>
+      <c r="T273" s="1"/>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>254</v>
       </c>
@@ -17389,8 +18483,12 @@
       <c r="R274" s="1">
         <v>292</v>
       </c>
-    </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S274" s="1">
+        <v>0</v>
+      </c>
+      <c r="T274" s="1"/>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>255</v>
       </c>
@@ -17445,8 +18543,12 @@
       <c r="R275" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S275" s="1">
+        <v>1</v>
+      </c>
+      <c r="T275" s="1"/>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>256</v>
       </c>
@@ -17501,8 +18603,12 @@
       <c r="R276" s="1">
         <v>248</v>
       </c>
-    </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S276" s="1">
+        <v>0</v>
+      </c>
+      <c r="T276" s="1"/>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>257</v>
       </c>
@@ -17557,8 +18663,12 @@
       <c r="R277" s="1">
         <v>318</v>
       </c>
-    </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S277" s="1">
+        <v>0</v>
+      </c>
+      <c r="T277" s="1"/>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>353</v>
       </c>
@@ -17613,8 +18723,12 @@
       <c r="R278" s="1">
         <v>265</v>
       </c>
-    </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S278" s="1">
+        <v>0</v>
+      </c>
+      <c r="T278" s="1"/>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>258</v>
       </c>
@@ -17669,8 +18783,12 @@
       <c r="R279" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S279" s="1">
+        <v>0</v>
+      </c>
+      <c r="T279" s="1"/>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>259</v>
       </c>
@@ -17725,8 +18843,12 @@
       <c r="R280" s="1">
         <v>256</v>
       </c>
-    </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S280" s="1">
+        <v>0</v>
+      </c>
+      <c r="T280" s="1"/>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>354</v>
       </c>
@@ -17781,8 +18903,12 @@
       <c r="R281" s="1">
         <v>216</v>
       </c>
-    </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S281" s="1">
+        <v>0</v>
+      </c>
+      <c r="T281" s="1"/>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>355</v>
       </c>
@@ -17837,8 +18963,12 @@
       <c r="R282" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S282" s="1">
+        <v>1</v>
+      </c>
+      <c r="T282" s="1"/>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>260</v>
       </c>
@@ -17893,8 +19023,12 @@
       <c r="R283" s="1">
         <v>233</v>
       </c>
-    </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S283" s="1">
+        <v>0</v>
+      </c>
+      <c r="T283" s="1"/>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>261</v>
       </c>
@@ -17949,8 +19083,12 @@
       <c r="R284" s="1">
         <v>279</v>
       </c>
-    </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S284" s="1">
+        <v>0</v>
+      </c>
+      <c r="T284" s="1"/>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>356</v>
       </c>
@@ -18005,8 +19143,12 @@
       <c r="R285" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S285" s="1">
+        <v>1</v>
+      </c>
+      <c r="T285" s="1"/>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>357</v>
       </c>
@@ -18061,8 +19203,12 @@
       <c r="R286" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S286" s="1">
+        <v>0</v>
+      </c>
+      <c r="T286" s="1"/>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>358</v>
       </c>
@@ -18117,8 +19263,12 @@
       <c r="R287" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S287" s="1">
+        <v>0</v>
+      </c>
+      <c r="T287" s="1"/>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>262</v>
       </c>
@@ -18173,8 +19323,12 @@
       <c r="R288" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S288" s="1">
+        <v>0</v>
+      </c>
+      <c r="T288" s="1"/>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>263</v>
       </c>
@@ -18229,8 +19383,12 @@
       <c r="R289" s="1">
         <v>204</v>
       </c>
-    </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S289" s="1">
+        <v>0</v>
+      </c>
+      <c r="T289" s="1"/>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>264</v>
       </c>
@@ -18285,8 +19443,12 @@
       <c r="R290" s="1">
         <v>263</v>
       </c>
-    </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S290" s="1">
+        <v>0</v>
+      </c>
+      <c r="T290" s="1"/>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>265</v>
       </c>
@@ -18341,8 +19503,12 @@
       <c r="R291" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S291" s="1">
+        <v>0</v>
+      </c>
+      <c r="T291" s="1"/>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>266</v>
       </c>
@@ -18397,8 +19563,12 @@
       <c r="R292" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S292" s="1">
+        <v>1</v>
+      </c>
+      <c r="T292" s="1"/>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>267</v>
       </c>
@@ -18453,8 +19623,12 @@
       <c r="R293" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S293" s="1">
+        <v>1</v>
+      </c>
+      <c r="T293" s="1"/>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>268</v>
       </c>
@@ -18509,8 +19683,12 @@
       <c r="R294" s="1">
         <v>326</v>
       </c>
-    </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S294" s="1">
+        <v>0</v>
+      </c>
+      <c r="T294" s="1"/>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>269</v>
       </c>
@@ -18565,8 +19743,12 @@
       <c r="R295" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S295" s="1">
+        <v>0</v>
+      </c>
+      <c r="T295" s="1"/>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>270</v>
       </c>
@@ -18621,8 +19803,12 @@
       <c r="R296" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S296" s="1">
+        <v>0</v>
+      </c>
+      <c r="T296" s="1"/>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>271</v>
       </c>
@@ -18677,8 +19863,12 @@
       <c r="R297" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S297" s="1">
+        <v>0</v>
+      </c>
+      <c r="T297" s="1"/>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>272</v>
       </c>
@@ -18733,8 +19923,12 @@
       <c r="R298" s="1">
         <v>319</v>
       </c>
-    </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S298" s="1">
+        <v>0</v>
+      </c>
+      <c r="T298" s="1"/>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>273</v>
       </c>
@@ -18789,8 +19983,12 @@
       <c r="R299" s="1">
         <v>166</v>
       </c>
-    </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S299" s="1">
+        <v>0</v>
+      </c>
+      <c r="T299" s="1"/>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>274</v>
       </c>
@@ -18845,8 +20043,12 @@
       <c r="R300" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S300" s="1">
+        <v>0</v>
+      </c>
+      <c r="T300" s="1"/>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>359</v>
       </c>
@@ -18901,8 +20103,12 @@
       <c r="R301" s="1">
         <v>119</v>
       </c>
-    </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S301" s="1">
+        <v>0</v>
+      </c>
+      <c r="T301" s="1"/>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>360</v>
       </c>
@@ -18957,8 +20163,12 @@
       <c r="R302" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S302" s="1">
+        <v>0</v>
+      </c>
+      <c r="T302" s="1"/>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>275</v>
       </c>
@@ -19013,8 +20223,12 @@
       <c r="R303" s="1">
         <v>316</v>
       </c>
-    </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S303" s="1">
+        <v>0</v>
+      </c>
+      <c r="T303" s="1"/>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>276</v>
       </c>
@@ -19069,8 +20283,12 @@
       <c r="R304" s="1">
         <v>198</v>
       </c>
-    </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S304" s="1">
+        <v>0</v>
+      </c>
+      <c r="T304" s="1"/>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>277</v>
       </c>
@@ -19125,8 +20343,12 @@
       <c r="R305" s="1">
         <v>234</v>
       </c>
-    </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S305" s="1">
+        <v>0</v>
+      </c>
+      <c r="T305" s="1"/>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>278</v>
       </c>
@@ -19181,8 +20403,12 @@
       <c r="R306" s="1">
         <v>288</v>
       </c>
-    </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S306" s="1">
+        <v>0</v>
+      </c>
+      <c r="T306" s="1"/>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>279</v>
       </c>
@@ -19237,8 +20463,12 @@
       <c r="R307" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S307" s="1">
+        <v>0</v>
+      </c>
+      <c r="T307" s="1"/>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>280</v>
       </c>
@@ -19293,8 +20523,12 @@
       <c r="R308" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S308" s="1">
+        <v>1</v>
+      </c>
+      <c r="T308" s="1"/>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>281</v>
       </c>
@@ -19349,8 +20583,12 @@
       <c r="R309" s="1">
         <v>241</v>
       </c>
-    </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S309" s="1">
+        <v>0</v>
+      </c>
+      <c r="T309" s="1"/>
+    </row>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>282</v>
       </c>
@@ -19405,8 +20643,12 @@
       <c r="R310" s="1">
         <v>311</v>
       </c>
-    </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S310" s="1">
+        <v>0</v>
+      </c>
+      <c r="T310" s="1"/>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>283</v>
       </c>
@@ -19461,8 +20703,12 @@
       <c r="R311" s="1">
         <v>259</v>
       </c>
-    </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S311" s="1">
+        <v>0</v>
+      </c>
+      <c r="T311" s="1"/>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>284</v>
       </c>
@@ -19517,8 +20763,12 @@
       <c r="R312" s="1">
         <v>251</v>
       </c>
-    </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S312" s="1">
+        <v>0</v>
+      </c>
+      <c r="T312" s="1"/>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>285</v>
       </c>
@@ -19573,8 +20823,12 @@
       <c r="R313" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S313" s="1">
+        <v>0</v>
+      </c>
+      <c r="T313" s="1"/>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>286</v>
       </c>
@@ -19629,8 +20883,12 @@
       <c r="R314" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S314" s="1">
+        <v>0</v>
+      </c>
+      <c r="T314" s="1"/>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>287</v>
       </c>
@@ -19685,8 +20943,12 @@
       <c r="R315" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S315" s="1">
+        <v>0</v>
+      </c>
+      <c r="T315" s="1"/>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>288</v>
       </c>
@@ -19741,8 +21003,12 @@
       <c r="R316" s="1">
         <v>221</v>
       </c>
-    </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S316" s="1">
+        <v>0</v>
+      </c>
+      <c r="T316" s="1"/>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>289</v>
       </c>
@@ -19797,8 +21063,12 @@
       <c r="R317" s="1">
         <v>270</v>
       </c>
-    </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S317" s="1">
+        <v>0</v>
+      </c>
+      <c r="T317" s="1"/>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>290</v>
       </c>
@@ -19853,8 +21123,12 @@
       <c r="R318" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S318" s="1">
+        <v>0</v>
+      </c>
+      <c r="T318" s="1"/>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>291</v>
       </c>
@@ -19909,8 +21183,12 @@
       <c r="R319" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S319" s="1">
+        <v>1</v>
+      </c>
+      <c r="T319" s="1"/>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>292</v>
       </c>
@@ -19965,8 +21243,12 @@
       <c r="R320" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S320" s="1">
+        <v>1</v>
+      </c>
+      <c r="T320" s="1"/>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>293</v>
       </c>
@@ -20021,8 +21303,12 @@
       <c r="R321" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S321" s="1">
+        <v>0</v>
+      </c>
+      <c r="T321" s="1"/>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>294</v>
       </c>
@@ -20077,8 +21363,12 @@
       <c r="R322" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S322" s="1">
+        <v>1</v>
+      </c>
+      <c r="T322" s="1"/>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>295</v>
       </c>
@@ -20133,8 +21423,12 @@
       <c r="R323" s="1">
         <v>257</v>
       </c>
-    </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S323" s="1">
+        <v>0</v>
+      </c>
+      <c r="T323" s="1"/>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>296</v>
       </c>
@@ -20189,8 +21483,12 @@
       <c r="R324" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S324" s="1">
+        <v>0</v>
+      </c>
+      <c r="T324" s="1"/>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>297</v>
       </c>
@@ -20245,8 +21543,12 @@
       <c r="R325" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S325" s="1">
+        <v>1</v>
+      </c>
+      <c r="T325" s="1"/>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>298</v>
       </c>
@@ -20301,8 +21603,12 @@
       <c r="R326" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S326" s="1">
+        <v>0</v>
+      </c>
+      <c r="T326" s="1"/>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>299</v>
       </c>
@@ -20357,8 +21663,12 @@
       <c r="R327" s="1">
         <v>182</v>
       </c>
-    </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S327" s="1">
+        <v>0</v>
+      </c>
+      <c r="T327" s="1"/>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>300</v>
       </c>
@@ -20413,8 +21723,12 @@
       <c r="R328" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S328" s="1">
+        <v>0</v>
+      </c>
+      <c r="T328" s="1"/>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>301</v>
       </c>
@@ -20469,8 +21783,12 @@
       <c r="R329" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S329" s="1">
+        <v>0</v>
+      </c>
+      <c r="T329" s="1"/>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>302</v>
       </c>
@@ -20525,8 +21843,12 @@
       <c r="R330" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S330" s="1">
+        <v>0</v>
+      </c>
+      <c r="T330" s="1"/>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>303</v>
       </c>
@@ -20581,8 +21903,12 @@
       <c r="R331" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S331" s="1">
+        <v>1</v>
+      </c>
+      <c r="T331" s="1"/>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>304</v>
       </c>
@@ -20637,8 +21963,12 @@
       <c r="R332" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S332" s="1">
+        <v>0</v>
+      </c>
+      <c r="T332" s="1"/>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>305</v>
       </c>
@@ -20693,8 +22023,12 @@
       <c r="R333" s="1">
         <v>159</v>
       </c>
-    </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S333" s="1">
+        <v>0</v>
+      </c>
+      <c r="T333" s="1"/>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>306</v>
       </c>
@@ -20749,8 +22083,12 @@
       <c r="R334" s="1">
         <v>171</v>
       </c>
-    </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S334" s="1">
+        <v>1</v>
+      </c>
+      <c r="T334" s="1"/>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>307</v>
       </c>
@@ -20805,8 +22143,12 @@
       <c r="R335" s="1">
         <v>208</v>
       </c>
-    </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S335" s="1">
+        <v>0</v>
+      </c>
+      <c r="T335" s="1"/>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>308</v>
       </c>
@@ -20861,8 +22203,12 @@
       <c r="R336" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S336" s="1">
+        <v>1</v>
+      </c>
+      <c r="T336" s="1"/>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>309</v>
       </c>
@@ -20917,8 +22263,12 @@
       <c r="R337" s="1">
         <v>297</v>
       </c>
-    </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S337" s="1">
+        <v>0</v>
+      </c>
+      <c r="T337" s="1"/>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>310</v>
       </c>
@@ -20973,8 +22323,12 @@
       <c r="R338" s="1">
         <v>272</v>
       </c>
-    </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S338" s="1">
+        <v>0</v>
+      </c>
+      <c r="T338" s="1"/>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>311</v>
       </c>
@@ -21029,8 +22383,12 @@
       <c r="R339" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S339" s="1">
+        <v>1</v>
+      </c>
+      <c r="T339" s="1"/>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>312</v>
       </c>
@@ -21085,8 +22443,12 @@
       <c r="R340" s="1">
         <v>178</v>
       </c>
-    </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S340" s="1">
+        <v>0</v>
+      </c>
+      <c r="T340" s="1"/>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>313</v>
       </c>
@@ -21141,8 +22503,12 @@
       <c r="R341" s="1">
         <v>226</v>
       </c>
-    </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S341" s="1">
+        <v>0</v>
+      </c>
+      <c r="T341" s="1"/>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>314</v>
       </c>
@@ -21197,8 +22563,12 @@
       <c r="R342" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S342" s="1">
+        <v>0</v>
+      </c>
+      <c r="T342" s="1"/>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>315</v>
       </c>
@@ -21253,8 +22623,12 @@
       <c r="R343" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S343" s="1">
+        <v>1</v>
+      </c>
+      <c r="T343" s="1"/>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>316</v>
       </c>
@@ -21309,8 +22683,12 @@
       <c r="R344" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S344" s="1">
+        <v>0</v>
+      </c>
+      <c r="T344" s="1"/>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>317</v>
       </c>
@@ -21365,8 +22743,12 @@
       <c r="R345" s="1">
         <v>175</v>
       </c>
-    </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S345" s="1">
+        <v>0</v>
+      </c>
+      <c r="T345" s="1"/>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -21384,8 +22766,9 @@
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
-    </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S346" s="1"/>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -21404,7 +22787,7 @@
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
